--- a/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005063</t>
+          <t>159996</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数A</t>
+          <t>国泰中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>10.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005064</t>
+          <t>160921</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数C</t>
+          <t>大成多策略混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159996</t>
+          <t>005063</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证全指家用电器ETF</t>
+          <t>广发中证全指家用电器指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>48.32</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.39</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>62.56</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.29</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160921</t>
+          <t>005064</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成多策略混合(LOF)</t>
+          <t>广发中证全指家用电器指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159996</t>
+          <t>160916</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中证全指家用电器ETF</t>
+          <t>大成优选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>38.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160916</t>
+          <t>159996</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成优选混合(LOF)</t>
+          <t>国泰中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -772,15 +872,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>80.52</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.02</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -800,15 +910,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.79</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.65</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -828,15 +948,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.79</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.65</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.71</v>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1916,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1837,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,17 +1849,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1868,14 +1889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1884,14 +1927,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1900,14 +2033,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.71</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -1916,14 +2049,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="6">
@@ -1932,13 +2065,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159996</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指家用电器ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.56</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3126</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2726</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1876</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009899</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>上银内需增长股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>48.32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0621</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D6" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007393</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上银未来生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>62.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0475</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+      <c r="D7" t="n">
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160916</t>
+          <t>012461</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成优选混合(LOF)</t>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.26</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7294</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -829,150 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159996</t>
+          <t>012462</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证全指家用电器ETF</t>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2471</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1860</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1203</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0461</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1037,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160916</t>
+          <t>012461</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成优选混合(LOF)</t>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.87</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.66</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8243</t>
+          <t>0.0342</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1075,36 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010738</t>
+          <t>009899</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成优选升级一年持有期混合A</t>
+          <t>上银内需增长股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>87.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3248</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1113,264 +847,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160921</t>
+          <t>012462</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成多策略混合(LOF)</t>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.30</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2616</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1164</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159996</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰中证全指家用电器ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1022</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0482</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009613</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010739</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成优选升级一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009614</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>上银中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,7 +1195,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1719,36 +1225,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012461</t>
+          <t>160916</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+          <t>大成优选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>32.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>82.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0342</t>
+          <t>1.8243</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1757,36 +1263,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009899</t>
+          <t>010738</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上银内需增长股票</t>
+          <t>大成优选升级一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.22</t>
+          <t>81.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.3248</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1795,36 +1301,264 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012462</t>
+          <t>160921</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+          <t>大成多策略混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.04</t>
+          <t>79.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.2616</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1838,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1859,7 +1593,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1889,36 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012461</t>
+          <t>160916</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+          <t>大成优选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>38.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>85.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>1.7294</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1927,36 +1661,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012462</t>
+          <t>159996</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+          <t>国泰中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>99.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.2471</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1970,128 +1818,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>48.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.93</v>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002242-九阳股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.71</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.93</v>
       </c>
     </row>
@@ -583,6 +600,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004707</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014466</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014467</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,7 +1015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -884,7 +1185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1168,7 +1469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1566,7 +1867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1812,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
